--- a/Data/Output/Yearly-Report-2023-RO874232.xlsx
+++ b/Data/Output/Yearly-Report-2023-RO874232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -79,55 +79,37 @@
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>859985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34689.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208135</x:t>
+    <x:t>347557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1429.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8578.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>732222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15474.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92845.2</x:t>
   </x:si>
   <x:si>
     <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1429.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8578.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>732222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15474.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92845.2</x:t>
   </x:si>
   <x:si>
     <x:t>743458</x:t>
@@ -574,7 +556,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G12"/>
+  <x:dimension ref="A1:G11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -654,68 +636,68 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -723,22 +705,22 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -746,113 +728,90 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>

--- a/Data/Output/Yearly-Report-2023-RO874232.xlsx
+++ b/Data/Output/Yearly-Report-2023-RO874232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -79,6 +79,27 @@
     <x:t>RON</x:t>
   </x:si>
   <x:si>
+    <x:t>859985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34689.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
     <x:t>347557</x:t>
   </x:si>
   <x:si>
@@ -107,9 +128,6 @@
   </x:si>
   <x:si>
     <x:t>92845.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
   </x:si>
   <x:si>
     <x:t>743458</x:t>
@@ -556,7 +574,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G11"/>
+  <x:dimension ref="A1:G12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,68 +654,68 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -705,22 +723,22 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -728,90 +746,113 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
